--- a/Prediction/df_y.xlsx
+++ b/Prediction/df_y.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="comparison_evaluation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -41,11 +41,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -53,8 +53,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -100,15 +107,532 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison_evaluation!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y_test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>comparison_evaluation!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>others</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>happy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sad</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>angry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison_evaluation!$C$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4677</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="234051456"/>
+        <c:axId val="262380928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="234051456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="262380928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="262380928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="234051456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison_evaluation!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y_test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>comparison_evaluation!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>others</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>happy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sad</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>angry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison_evaluation!$C$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4677</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison_evaluation!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y_train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>comparison_evaluation!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>others</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>happy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sad</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>angry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison_evaluation!$C$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5463</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5506</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="103310464"/>
+        <c:axId val="103321600"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="103310464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103321600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="103321600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103310464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>comparison_evaluation!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y_train</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>comparison_evaluation!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>others</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>happy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sad</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>angry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>comparison_evaluation!$C$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5463</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5506</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -394,9 +918,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
@@ -456,6 +982,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>